--- a/bist100Gecmis/ENJSA.xlsx
+++ b/bist100Gecmis/ENJSA.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="isyatirim" sheetId="1" r:id="Ra626d0d241e14dc9"/>
+    <sheet name="isyatirim" sheetId="1" r:id="Rfc4094f309fc4a99"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="1483">
   <si>
     <t>Tarih</t>
   </si>
@@ -4370,6 +4370,96 @@
   </si>
   <si>
     <t>10-11-2023</t>
+  </si>
+  <si>
+    <t>13-11-2023</t>
+  </si>
+  <si>
+    <t>14-11-2023</t>
+  </si>
+  <si>
+    <t>15-11-2023</t>
+  </si>
+  <si>
+    <t>16-11-2023</t>
+  </si>
+  <si>
+    <t>17-11-2023</t>
+  </si>
+  <si>
+    <t>20-11-2023</t>
+  </si>
+  <si>
+    <t>21-11-2023</t>
+  </si>
+  <si>
+    <t>22-11-2023</t>
+  </si>
+  <si>
+    <t>23-11-2023</t>
+  </si>
+  <si>
+    <t>24-11-2023</t>
+  </si>
+  <si>
+    <t>27-11-2023</t>
+  </si>
+  <si>
+    <t>28-11-2023</t>
+  </si>
+  <si>
+    <t>29-11-2023</t>
+  </si>
+  <si>
+    <t>30-11-2023</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
+  </si>
+  <si>
+    <t>04-12-2023</t>
+  </si>
+  <si>
+    <t>05-12-2023</t>
+  </si>
+  <si>
+    <t>06-12-2023</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
+  </si>
+  <si>
+    <t>08-12-2023</t>
+  </si>
+  <si>
+    <t>11-12-2023</t>
+  </si>
+  <si>
+    <t>12-12-2023</t>
+  </si>
+  <si>
+    <t>13-12-2023</t>
+  </si>
+  <si>
+    <t>14-12-2023</t>
+  </si>
+  <si>
+    <t>15-12-2023</t>
+  </si>
+  <si>
+    <t>18-12-2023</t>
+  </si>
+  <si>
+    <t>19-12-2023</t>
+  </si>
+  <si>
+    <t>20-12-2023</t>
+  </si>
+  <si>
+    <t>21-12-2023</t>
+  </si>
+  <si>
+    <t>22-12-2023</t>
   </si>
 </sst>
 </file>
@@ -4416,7 +4506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1440"/>
+  <dimension ref="A1:M1470"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -63462,6 +63552,1236 @@
         <v>428</v>
       </c>
     </row>
+    <row r="1441">
+      <c r="A1441" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>49.52</v>
+      </c>
+      <c r="C1441" s="1">
+        <v>49.52</v>
+      </c>
+      <c r="D1441" s="1">
+        <v>52.55</v>
+      </c>
+      <c r="E1441" s="1">
+        <v>51.03</v>
+      </c>
+      <c r="F1441" s="1">
+        <v>670470812</v>
+      </c>
+      <c r="G1441" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1441" s="1">
+        <v>28.5934</v>
+      </c>
+      <c r="I1441" s="1">
+        <v>7568</v>
+      </c>
+      <c r="J1441" s="1">
+        <v>58487</v>
+      </c>
+      <c r="K1441" s="1">
+        <v>2045</v>
+      </c>
+      <c r="L1441" s="1">
+        <v>11691</v>
+      </c>
+      <c r="M1441" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>49.66</v>
+      </c>
+      <c r="C1442" s="1">
+        <v>48.52</v>
+      </c>
+      <c r="D1442" s="1">
+        <v>50.35</v>
+      </c>
+      <c r="E1442" s="1">
+        <v>49.43</v>
+      </c>
+      <c r="F1442" s="1">
+        <v>522003667</v>
+      </c>
+      <c r="G1442" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1442" s="1">
+        <v>28.6341</v>
+      </c>
+      <c r="I1442" s="1">
+        <v>7671</v>
+      </c>
+      <c r="J1442" s="1">
+        <v>58652</v>
+      </c>
+      <c r="K1442" s="1">
+        <v>2048</v>
+      </c>
+      <c r="L1442" s="1">
+        <v>11725</v>
+      </c>
+      <c r="M1442" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="C1443" s="1">
+        <v>49.12</v>
+      </c>
+      <c r="D1443" s="1">
+        <v>51.95</v>
+      </c>
+      <c r="E1443" s="1">
+        <v>50.43</v>
+      </c>
+      <c r="F1443" s="1">
+        <v>1061519961</v>
+      </c>
+      <c r="G1443" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1443" s="1">
+        <v>28.6679</v>
+      </c>
+      <c r="I1443" s="1">
+        <v>7666</v>
+      </c>
+      <c r="J1443" s="1">
+        <v>59762</v>
+      </c>
+      <c r="K1443" s="1">
+        <v>2085</v>
+      </c>
+      <c r="L1443" s="1">
+        <v>11946</v>
+      </c>
+      <c r="M1443" s="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="C1444" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="D1444" s="1">
+        <v>51</v>
+      </c>
+      <c r="E1444" s="1">
+        <v>50.55</v>
+      </c>
+      <c r="F1444" s="1">
+        <v>533373271</v>
+      </c>
+      <c r="G1444" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1444" s="1">
+        <v>28.7045</v>
+      </c>
+      <c r="I1444" s="1">
+        <v>7781</v>
+      </c>
+      <c r="J1444" s="1">
+        <v>59408</v>
+      </c>
+      <c r="K1444" s="1">
+        <v>2070</v>
+      </c>
+      <c r="L1444" s="1">
+        <v>11876</v>
+      </c>
+      <c r="M1444" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>49.94</v>
+      </c>
+      <c r="C1445" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="D1445" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="E1445" s="1">
+        <v>50.02</v>
+      </c>
+      <c r="F1445" s="1">
+        <v>566275486</v>
+      </c>
+      <c r="G1445" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1445" s="1">
+        <v>28.7109</v>
+      </c>
+      <c r="I1445" s="1">
+        <v>7853</v>
+      </c>
+      <c r="J1445" s="1">
+        <v>58983</v>
+      </c>
+      <c r="K1445" s="1">
+        <v>2054</v>
+      </c>
+      <c r="L1445" s="1">
+        <v>11791</v>
+      </c>
+      <c r="M1445" s="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="C1446" s="1">
+        <v>49.96</v>
+      </c>
+      <c r="D1446" s="1">
+        <v>50.75</v>
+      </c>
+      <c r="E1446" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="F1446" s="1">
+        <v>516483981</v>
+      </c>
+      <c r="G1446" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1446" s="1">
+        <v>28.7568</v>
+      </c>
+      <c r="I1446" s="1">
+        <v>7946</v>
+      </c>
+      <c r="J1446" s="1">
+        <v>59172</v>
+      </c>
+      <c r="K1446" s="1">
+        <v>2058</v>
+      </c>
+      <c r="L1446" s="1">
+        <v>11828</v>
+      </c>
+      <c r="M1446" s="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1447" s="1">
+        <v>50.35</v>
+      </c>
+      <c r="C1447" s="1">
+        <v>50.25</v>
+      </c>
+      <c r="D1447" s="1">
+        <v>51.25</v>
+      </c>
+      <c r="E1447" s="1">
+        <v>50.66</v>
+      </c>
+      <c r="F1447" s="1">
+        <v>703285224</v>
+      </c>
+      <c r="G1447" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1447" s="1">
+        <v>28.7992</v>
+      </c>
+      <c r="I1447" s="1">
+        <v>8047</v>
+      </c>
+      <c r="J1447" s="1">
+        <v>59467</v>
+      </c>
+      <c r="K1447" s="1">
+        <v>2065</v>
+      </c>
+      <c r="L1447" s="1">
+        <v>11887</v>
+      </c>
+      <c r="M1447" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1448" s="1">
+        <v>50.05</v>
+      </c>
+      <c r="C1448" s="1">
+        <v>50.05</v>
+      </c>
+      <c r="D1448" s="1">
+        <v>51.05</v>
+      </c>
+      <c r="E1448" s="1">
+        <v>50.42</v>
+      </c>
+      <c r="F1448" s="1">
+        <v>470814371</v>
+      </c>
+      <c r="G1448" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1448" s="1">
+        <v>28.8136</v>
+      </c>
+      <c r="I1448" s="1">
+        <v>7987</v>
+      </c>
+      <c r="J1448" s="1">
+        <v>59113</v>
+      </c>
+      <c r="K1448" s="1">
+        <v>2052</v>
+      </c>
+      <c r="L1448" s="1">
+        <v>11817</v>
+      </c>
+      <c r="M1448" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1449" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="C1449" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="D1449" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="E1449" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="F1449" s="1">
+        <v>481201590</v>
+      </c>
+      <c r="G1449" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1449" s="1">
+        <v>28.8304</v>
+      </c>
+      <c r="I1449" s="1">
+        <v>7899</v>
+      </c>
+      <c r="J1449" s="1">
+        <v>58109</v>
+      </c>
+      <c r="K1449" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L1449" s="1">
+        <v>11616</v>
+      </c>
+      <c r="M1449" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1450" s="1">
+        <v>49.58</v>
+      </c>
+      <c r="C1450" s="1">
+        <v>48.82</v>
+      </c>
+      <c r="D1450" s="1">
+        <v>49.84</v>
+      </c>
+      <c r="E1450" s="1">
+        <v>49.27</v>
+      </c>
+      <c r="F1450" s="1">
+        <v>418295810</v>
+      </c>
+      <c r="G1450" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1450" s="1">
+        <v>28.8607</v>
+      </c>
+      <c r="I1450" s="1">
+        <v>7960</v>
+      </c>
+      <c r="J1450" s="1">
+        <v>58557</v>
+      </c>
+      <c r="K1450" s="1">
+        <v>2029</v>
+      </c>
+      <c r="L1450" s="1">
+        <v>11706</v>
+      </c>
+      <c r="M1450" s="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1451" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="C1451" s="1">
+        <v>49.34</v>
+      </c>
+      <c r="D1451" s="1">
+        <v>50.35</v>
+      </c>
+      <c r="E1451" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="F1451" s="1">
+        <v>526207721</v>
+      </c>
+      <c r="G1451" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1451" s="1">
+        <v>28.9104</v>
+      </c>
+      <c r="I1451" s="1">
+        <v>8107</v>
+      </c>
+      <c r="J1451" s="1">
+        <v>58581</v>
+      </c>
+      <c r="K1451" s="1">
+        <v>2026</v>
+      </c>
+      <c r="L1451" s="1">
+        <v>11710</v>
+      </c>
+      <c r="M1451" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1452" s="1">
+        <v>49</v>
+      </c>
+      <c r="C1452" s="1">
+        <v>48.84</v>
+      </c>
+      <c r="D1452" s="1">
+        <v>49.86</v>
+      </c>
+      <c r="E1452" s="1">
+        <v>49.35</v>
+      </c>
+      <c r="F1452" s="1">
+        <v>494094181</v>
+      </c>
+      <c r="G1452" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1452" s="1">
+        <v>28.9289</v>
+      </c>
+      <c r="I1452" s="1">
+        <v>8094</v>
+      </c>
+      <c r="J1452" s="1">
+        <v>57872</v>
+      </c>
+      <c r="K1452" s="1">
+        <v>2001</v>
+      </c>
+      <c r="L1452" s="1">
+        <v>11569</v>
+      </c>
+      <c r="M1452" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1453" s="1">
+        <v>48.82</v>
+      </c>
+      <c r="C1453" s="1">
+        <v>48.64</v>
+      </c>
+      <c r="D1453" s="1">
+        <v>49.44</v>
+      </c>
+      <c r="E1453" s="1">
+        <v>49.05</v>
+      </c>
+      <c r="F1453" s="1">
+        <v>437718905</v>
+      </c>
+      <c r="G1453" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1453" s="1">
+        <v>28.9116</v>
+      </c>
+      <c r="I1453" s="1">
+        <v>8009</v>
+      </c>
+      <c r="J1453" s="1">
+        <v>57660</v>
+      </c>
+      <c r="K1453" s="1">
+        <v>1994</v>
+      </c>
+      <c r="L1453" s="1">
+        <v>11526</v>
+      </c>
+      <c r="M1453" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1454" s="1">
+        <v>47.56</v>
+      </c>
+      <c r="C1454" s="1">
+        <v>47.56</v>
+      </c>
+      <c r="D1454" s="1">
+        <v>49.04</v>
+      </c>
+      <c r="E1454" s="1">
+        <v>48.41</v>
+      </c>
+      <c r="F1454" s="1">
+        <v>385761544</v>
+      </c>
+      <c r="G1454" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1454" s="1">
+        <v>28.8728</v>
+      </c>
+      <c r="I1454" s="1">
+        <v>7949</v>
+      </c>
+      <c r="J1454" s="1">
+        <v>56172</v>
+      </c>
+      <c r="K1454" s="1">
+        <v>1945</v>
+      </c>
+      <c r="L1454" s="1">
+        <v>11229</v>
+      </c>
+      <c r="M1454" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1455" s="1">
+        <v>47.66</v>
+      </c>
+      <c r="C1455" s="1">
+        <v>47.66</v>
+      </c>
+      <c r="D1455" s="1">
+        <v>48.64</v>
+      </c>
+      <c r="E1455" s="1">
+        <v>47.98</v>
+      </c>
+      <c r="F1455" s="1">
+        <v>340720281</v>
+      </c>
+      <c r="G1455" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1455" s="1">
+        <v>28.9073</v>
+      </c>
+      <c r="I1455" s="1">
+        <v>8026</v>
+      </c>
+      <c r="J1455" s="1">
+        <v>56290</v>
+      </c>
+      <c r="K1455" s="1">
+        <v>1947</v>
+      </c>
+      <c r="L1455" s="1">
+        <v>11252</v>
+      </c>
+      <c r="M1455" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1456" s="1">
+        <v>48.98</v>
+      </c>
+      <c r="C1456" s="1">
+        <v>47.78</v>
+      </c>
+      <c r="D1456" s="1">
+        <v>48.98</v>
+      </c>
+      <c r="E1456" s="1">
+        <v>48.39</v>
+      </c>
+      <c r="F1456" s="1">
+        <v>470938081</v>
+      </c>
+      <c r="G1456" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1456" s="1">
+        <v>28.9035</v>
+      </c>
+      <c r="I1456" s="1">
+        <v>8087</v>
+      </c>
+      <c r="J1456" s="1">
+        <v>57849</v>
+      </c>
+      <c r="K1456" s="1">
+        <v>2001</v>
+      </c>
+      <c r="L1456" s="1">
+        <v>11564</v>
+      </c>
+      <c r="M1456" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>47.88</v>
+      </c>
+      <c r="C1457" s="1">
+        <v>47.74</v>
+      </c>
+      <c r="D1457" s="1">
+        <v>49.06</v>
+      </c>
+      <c r="E1457" s="1">
+        <v>48.34</v>
+      </c>
+      <c r="F1457" s="1">
+        <v>333433533</v>
+      </c>
+      <c r="G1457" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1457" s="1">
+        <v>28.9225</v>
+      </c>
+      <c r="I1457" s="1">
+        <v>8057</v>
+      </c>
+      <c r="J1457" s="1">
+        <v>56550</v>
+      </c>
+      <c r="K1457" s="1">
+        <v>1955</v>
+      </c>
+      <c r="L1457" s="1">
+        <v>11304</v>
+      </c>
+      <c r="M1457" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>46.32</v>
+      </c>
+      <c r="C1458" s="1">
+        <v>46.22</v>
+      </c>
+      <c r="D1458" s="1">
+        <v>48.08</v>
+      </c>
+      <c r="E1458" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="F1458" s="1">
+        <v>364109587</v>
+      </c>
+      <c r="G1458" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1458" s="1">
+        <v>28.9313</v>
+      </c>
+      <c r="I1458" s="1">
+        <v>7855</v>
+      </c>
+      <c r="J1458" s="1">
+        <v>54707</v>
+      </c>
+      <c r="K1458" s="1">
+        <v>1891</v>
+      </c>
+      <c r="L1458" s="1">
+        <v>10936</v>
+      </c>
+      <c r="M1458" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="C1459" s="1">
+        <v>46.16</v>
+      </c>
+      <c r="D1459" s="1">
+        <v>47.52</v>
+      </c>
+      <c r="E1459" s="1">
+        <v>46.76</v>
+      </c>
+      <c r="F1459" s="1">
+        <v>377294026</v>
+      </c>
+      <c r="G1459" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1459" s="1">
+        <v>28.926</v>
+      </c>
+      <c r="I1459" s="1">
+        <v>7979</v>
+      </c>
+      <c r="J1459" s="1">
+        <v>55983</v>
+      </c>
+      <c r="K1459" s="1">
+        <v>1935</v>
+      </c>
+      <c r="L1459" s="1">
+        <v>11191</v>
+      </c>
+      <c r="M1459" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>48.46</v>
+      </c>
+      <c r="C1460" s="1">
+        <v>47.34</v>
+      </c>
+      <c r="D1460" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="E1460" s="1">
+        <v>48.05</v>
+      </c>
+      <c r="F1460" s="1">
+        <v>398144687</v>
+      </c>
+      <c r="G1460" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1460" s="1">
+        <v>28.9495</v>
+      </c>
+      <c r="I1460" s="1">
+        <v>7914</v>
+      </c>
+      <c r="J1460" s="1">
+        <v>57235</v>
+      </c>
+      <c r="K1460" s="1">
+        <v>1977</v>
+      </c>
+      <c r="L1460" s="1">
+        <v>11441</v>
+      </c>
+      <c r="M1460" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>47.04</v>
+      </c>
+      <c r="C1461" s="1">
+        <v>46.82</v>
+      </c>
+      <c r="D1461" s="1">
+        <v>48.38</v>
+      </c>
+      <c r="E1461" s="1">
+        <v>47.29</v>
+      </c>
+      <c r="F1461" s="1">
+        <v>288200231</v>
+      </c>
+      <c r="G1461" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1461" s="1">
+        <v>28.9917</v>
+      </c>
+      <c r="I1461" s="1">
+        <v>7728</v>
+      </c>
+      <c r="J1461" s="1">
+        <v>55557</v>
+      </c>
+      <c r="K1461" s="1">
+        <v>1916</v>
+      </c>
+      <c r="L1461" s="1">
+        <v>11106</v>
+      </c>
+      <c r="M1461" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>46.52</v>
+      </c>
+      <c r="C1462" s="1">
+        <v>45.98</v>
+      </c>
+      <c r="D1462" s="1">
+        <v>47.1</v>
+      </c>
+      <c r="E1462" s="1">
+        <v>46.42</v>
+      </c>
+      <c r="F1462" s="1">
+        <v>384144789</v>
+      </c>
+      <c r="G1462" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1462" s="1">
+        <v>29.0295</v>
+      </c>
+      <c r="I1462" s="1">
+        <v>7749</v>
+      </c>
+      <c r="J1462" s="1">
+        <v>54943</v>
+      </c>
+      <c r="K1462" s="1">
+        <v>1893</v>
+      </c>
+      <c r="L1462" s="1">
+        <v>10983</v>
+      </c>
+      <c r="M1462" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="C1463" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="D1463" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="E1463" s="1">
+        <v>45.37</v>
+      </c>
+      <c r="F1463" s="1">
+        <v>339961866</v>
+      </c>
+      <c r="G1463" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1463" s="1">
+        <v>29.0579</v>
+      </c>
+      <c r="I1463" s="1">
+        <v>7529</v>
+      </c>
+      <c r="J1463" s="1">
+        <v>52676</v>
+      </c>
+      <c r="K1463" s="1">
+        <v>1813</v>
+      </c>
+      <c r="L1463" s="1">
+        <v>10530</v>
+      </c>
+      <c r="M1463" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1464" s="1">
+        <v>45.38</v>
+      </c>
+      <c r="C1464" s="1">
+        <v>44.14</v>
+      </c>
+      <c r="D1464" s="1">
+        <v>46</v>
+      </c>
+      <c r="E1464" s="1">
+        <v>44.77</v>
+      </c>
+      <c r="F1464" s="1">
+        <v>461351734</v>
+      </c>
+      <c r="G1464" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1464" s="1">
+        <v>29.0328</v>
+      </c>
+      <c r="I1464" s="1">
+        <v>7813</v>
+      </c>
+      <c r="J1464" s="1">
+        <v>53597</v>
+      </c>
+      <c r="K1464" s="1">
+        <v>1846</v>
+      </c>
+      <c r="L1464" s="1">
+        <v>10714</v>
+      </c>
+      <c r="M1464" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1465" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="C1465" s="1">
+        <v>45.42</v>
+      </c>
+      <c r="D1465" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="E1465" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="F1465" s="1">
+        <v>522862682</v>
+      </c>
+      <c r="G1465" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1465" s="1">
+        <v>29.0369</v>
+      </c>
+      <c r="I1465" s="1">
+        <v>7994</v>
+      </c>
+      <c r="J1465" s="1">
+        <v>55156</v>
+      </c>
+      <c r="K1465" s="1">
+        <v>1900</v>
+      </c>
+      <c r="L1465" s="1">
+        <v>11026</v>
+      </c>
+      <c r="M1465" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>45.18</v>
+      </c>
+      <c r="C1466" s="1">
+        <v>45.18</v>
+      </c>
+      <c r="D1466" s="1">
+        <v>46.78</v>
+      </c>
+      <c r="E1466" s="1">
+        <v>46.03</v>
+      </c>
+      <c r="F1466" s="1">
+        <v>323744622</v>
+      </c>
+      <c r="G1466" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1466" s="1">
+        <v>29.0576</v>
+      </c>
+      <c r="I1466" s="1">
+        <v>7790</v>
+      </c>
+      <c r="J1466" s="1">
+        <v>53361</v>
+      </c>
+      <c r="K1466" s="1">
+        <v>1836</v>
+      </c>
+      <c r="L1466" s="1">
+        <v>10667</v>
+      </c>
+      <c r="M1466" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>44.44</v>
+      </c>
+      <c r="C1467" s="1">
+        <v>43.88</v>
+      </c>
+      <c r="D1467" s="1">
+        <v>45.14</v>
+      </c>
+      <c r="E1467" s="1">
+        <v>44.28</v>
+      </c>
+      <c r="F1467" s="1">
+        <v>358222051</v>
+      </c>
+      <c r="G1467" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1467" s="1">
+        <v>29.0822</v>
+      </c>
+      <c r="I1467" s="1">
+        <v>7726</v>
+      </c>
+      <c r="J1467" s="1">
+        <v>52487</v>
+      </c>
+      <c r="K1467" s="1">
+        <v>1805</v>
+      </c>
+      <c r="L1467" s="1">
+        <v>10492</v>
+      </c>
+      <c r="M1467" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>44.38</v>
+      </c>
+      <c r="C1468" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="D1468" s="1">
+        <v>45.18</v>
+      </c>
+      <c r="E1468" s="1">
+        <v>44.61</v>
+      </c>
+      <c r="F1468" s="1">
+        <v>261888134</v>
+      </c>
+      <c r="G1468" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1468" s="1">
+        <v>29.1201</v>
+      </c>
+      <c r="I1468" s="1">
+        <v>7663</v>
+      </c>
+      <c r="J1468" s="1">
+        <v>52416</v>
+      </c>
+      <c r="K1468" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L1468" s="1">
+        <v>10478</v>
+      </c>
+      <c r="M1468" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>45.26</v>
+      </c>
+      <c r="C1469" s="1">
+        <v>43.82</v>
+      </c>
+      <c r="D1469" s="1">
+        <v>45.36</v>
+      </c>
+      <c r="E1469" s="1">
+        <v>44.43</v>
+      </c>
+      <c r="F1469" s="1">
+        <v>361470010</v>
+      </c>
+      <c r="G1469" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1469" s="1">
+        <v>29.1422</v>
+      </c>
+      <c r="I1469" s="1">
+        <v>7765</v>
+      </c>
+      <c r="J1469" s="1">
+        <v>53455</v>
+      </c>
+      <c r="K1469" s="1">
+        <v>1834</v>
+      </c>
+      <c r="L1469" s="1">
+        <v>10686</v>
+      </c>
+      <c r="M1469" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>44.94</v>
+      </c>
+      <c r="C1470" s="1">
+        <v>44.68</v>
+      </c>
+      <c r="D1470" s="1">
+        <v>45.98</v>
+      </c>
+      <c r="E1470" s="1">
+        <v>45.24</v>
+      </c>
+      <c r="F1470" s="1">
+        <v>366072252</v>
+      </c>
+      <c r="G1470" s="1">
+        <v>1181</v>
+      </c>
+      <c r="H1470" s="1">
+        <v>29.1869</v>
+      </c>
+      <c r="I1470" s="1">
+        <v>7558</v>
+      </c>
+      <c r="J1470" s="1">
+        <v>53077</v>
+      </c>
+      <c r="K1470" s="1">
+        <v>1819</v>
+      </c>
+      <c r="L1470" s="1">
+        <v>10610</v>
+      </c>
+      <c r="M1470" s="1">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
